--- a/processed_file.xlsx
+++ b/processed_file.xlsx
@@ -492,7 +492,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
